--- a/FTP/INBOX/deneme.xlsx
+++ b/FTP/INBOX/deneme.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\staj-2\ForumProjectV1\ForumProject\FTP\INBOX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FBC751-F8E9-4321-BB7C-A8AC2C407F47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7932904B-EC6E-4175-BA53-F55EF2945044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2790" yWindow="3315" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,7 +425,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
